--- a/vacation_log.xlsx
+++ b/vacation_log.xlsx
@@ -495,25 +495,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cclassen</t>
+          <t>kray</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chris Classen</t>
+          <t>Kenny Ray</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -536,10 +536,10 @@
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
